--- a/УПИС/03-09-2024-Upravlenie_Pr_IS_IU5_34M_Spisok_tem_i_dokladchikov_1.xlsx
+++ b/УПИС/03-09-2024-Upravlenie_Pr_IS_IU5_34M_Spisok_tem_i_dokladchikov_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TEACH_2024\УпрПрИС\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A1i5k\Desktop\Учёба\УПИС\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -390,11 +390,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1171,262 +1179,262 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="117">
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,13 +1703,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="102" t="s">
+      <c r="B2" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="104"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="112"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -1740,7 +1748,7 @@
       <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="99" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="29" t="s">
@@ -1755,7 +1763,7 @@
       <c r="C6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="29" t="s">
@@ -1770,7 +1778,7 @@
       <c r="C7" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="103" t="s">
         <v>98</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -1785,7 +1793,7 @@
       <c r="C8" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="100" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="39" t="s">
@@ -1813,7 +1821,7 @@
       <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="99" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="26" t="s">
@@ -1841,7 +1849,7 @@
       <c r="C12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="101" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="28" t="s">
@@ -1871,7 +1879,7 @@
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="99" t="s">
         <v>101</v>
       </c>
       <c r="E14" s="29" t="s">
@@ -1979,7 +1987,7 @@
       <c r="C22" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="114" t="s">
+      <c r="D22" s="104" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="42" t="s">
@@ -2009,7 +2017,7 @@
       <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="99" t="s">
         <v>99</v>
       </c>
       <c r="E24" s="27" t="s">
@@ -2024,7 +2032,7 @@
       <c r="C25" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="100" t="s">
         <v>100</v>
       </c>
       <c r="E25" s="47" t="s">
@@ -2093,7 +2101,7 @@
       <c r="C30" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="109" t="s">
+      <c r="D30" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="29" t="s">
@@ -2108,7 +2116,7 @@
       <c r="C31" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="115" t="s">
+      <c r="D31" s="105" t="s">
         <v>99</v>
       </c>
       <c r="E31" s="42" t="s">
@@ -2149,7 +2157,7 @@
       <c r="C34" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="100" t="s">
         <v>103</v>
       </c>
       <c r="E34" s="27" t="s">
@@ -2220,7 +2228,7 @@
       <c r="C39" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="114" t="s">
+      <c r="D39" s="104" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="65" t="s">
@@ -2237,7 +2245,7 @@
       <c r="C40" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="116" t="s">
+      <c r="D40" s="106" t="s">
         <v>101</v>
       </c>
       <c r="E40" s="57" t="s">
@@ -2252,7 +2260,7 @@
       <c r="C41" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="109" t="s">
+      <c r="D41" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E41" s="57" t="s">
@@ -2267,7 +2275,7 @@
       <c r="C42" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="101" t="s">
         <v>96</v>
       </c>
       <c r="E42" s="57" t="s">
@@ -2297,7 +2305,7 @@
       <c r="C44" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="109" t="s">
+      <c r="D44" s="99" t="s">
         <v>100</v>
       </c>
       <c r="E44" s="58" t="s">
@@ -2327,7 +2335,7 @@
       <c r="C46" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="101" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="58" t="s">
@@ -2491,7 +2499,7 @@
       <c r="C58" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D58" s="109" t="s">
+      <c r="D58" s="99" t="s">
         <v>95</v>
       </c>
       <c r="E58" s="62" t="s">
@@ -2519,7 +2527,7 @@
       <c r="C60" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="102" t="s">
         <v>97</v>
       </c>
       <c r="E60" s="62" t="s">
@@ -2575,7 +2583,7 @@
       <c r="C64" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="D64" s="111" t="s">
+      <c r="D64" s="101" t="s">
         <v>102</v>
       </c>
       <c r="E64" s="62" t="s">
@@ -2655,58 +2663,58 @@
       <c r="F69" s="95"/>
     </row>
     <row r="70" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="105" t="s">
+      <c r="B70" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="107"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="115"/>
       <c r="F70" s="13"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="100"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="101"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="109"/>
       <c r="F71" s="14"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="99" t="s">
+      <c r="B72" s="107" t="s">
         <v>41</v>
       </c>
-      <c r="C72" s="100"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="101"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="108"/>
+      <c r="E72" s="108"/>
+      <c r="F72" s="109"/>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C73" s="100"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="101"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="109"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="99" t="s">
+      <c r="B74" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="C74" s="100"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="101"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="109"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="99" t="s">
+      <c r="B75" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="101"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="7">
